--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3165932.150001143</v>
+        <v>3163680.070289936</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328534.79143572</v>
+        <v>8328534.791435719</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.4571321610379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.03085908134837</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>179.7985596763531</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>210.0587346978555</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>142.6796929637941</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>346.9316837919583</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>89.33700199671775</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>159.5199829376693</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>292.4089627143483</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>14.42881909501704</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>12.61028049873698</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1379,10 +1379,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187884</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>105.6507867899574</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.9215867835839</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>102.9630220374172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>55.52079624060383</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10.63412424768211</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
-        <v>133.5893686009543</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2959,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10.63412424768206</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695527</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>41.02686156550218</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.82863813027228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>25.52471385612634</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,10 +3913,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>628.5472171493652</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C4" t="n">
-        <v>628.5472171493652</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D4" t="n">
-        <v>478.4305777370295</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1548.361223971664</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V4" t="n">
-        <v>1366.746517227873</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W4" t="n">
-        <v>1077.329347190913</v>
+        <v>1012.558641511645</v>
       </c>
       <c r="X4" t="n">
-        <v>849.3397962928954</v>
+        <v>784.5690906136274</v>
       </c>
       <c r="Y4" t="n">
-        <v>628.5472171493652</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>557.1590183167814</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>550.2135175675779</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993394</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3119.628073993394</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2769.192029759092</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2395.726271498012</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2005.586939522201</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>934.4107598040977</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="C7" t="n">
-        <v>765.4745768761908</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D7" t="n">
-        <v>765.4745768761908</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>617.5614832937977</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>470.6715357958873</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>302.9686991706062</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>156.751512388464</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>874.001300694586</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>712.8700047979503</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1938.90602284268</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1569.943505902268</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1211.677807295518</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>825.8895546972735</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>414.903649907666</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>403.8716037930665</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906802</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2325.505862906802</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4872,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>867.4865790926983</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803938</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>842.6091804069456</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.207143961552</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.2677182139842</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>417.7969033733018</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.9161830442239</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6309,16 +6309,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368208</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>481.447947124485</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>333.5348535420919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3737171343192</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>597.2570777219835</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>449.3439841395904</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>302.45403664168</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>135.2579373565599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>135.2579373565599</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7163,13 +7163,13 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,16 +7178,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,25 +7488,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.37549921168723</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393473</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>183.5599762991737</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.9994244361429</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.74112246243957</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
-        <v>92.12028678808281</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24847,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>154.8900140445868</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>40.23897475306335</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25597,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>191.8807364711619</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>729390.5400014698</v>
+        <v>729390.5400014699</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>717232.2660989771</v>
+        <v>717232.2660989772</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>717232.2660989772</v>
+        <v>717232.2660989771</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287555</v>
@@ -26341,16 +26341,16 @@
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.274728755</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
         <v>706253.2747287556</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
+        <v>90964.01098815713</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815705</v>
       </c>
-      <c r="D4" t="n">
-        <v>90964.01098815716</v>
-      </c>
       <c r="E4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="G4" t="n">
         <v>11776.97621680584</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.9762168058</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11776.97621680581</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11776.97621680585</v>
+      </c>
+      <c r="M4" t="n">
         <v>11776.97621680584</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680584</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680586</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680584</v>
@@ -26525,43 +26525,43 @@
         <v>519513.5970816978</v>
       </c>
       <c r="D6" t="n">
-        <v>519513.5970816979</v>
+        <v>519513.5970816973</v>
       </c>
       <c r="E6" t="n">
-        <v>267941.3068806872</v>
+        <v>267906.5689552518</v>
       </c>
       <c r="F6" t="n">
-        <v>593353.7686880428</v>
+        <v>593319.0307626066</v>
       </c>
       <c r="G6" t="n">
-        <v>593353.7686880421</v>
+        <v>593319.0307626071</v>
       </c>
       <c r="H6" t="n">
-        <v>593353.7686880426</v>
+        <v>593319.0307626069</v>
       </c>
       <c r="I6" t="n">
-        <v>593353.7686880422</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="J6" t="n">
-        <v>375822.566290765</v>
+        <v>375787.8283653294</v>
       </c>
       <c r="K6" t="n">
-        <v>593353.7686880426</v>
+        <v>593319.030762607</v>
       </c>
       <c r="L6" t="n">
-        <v>593353.7686880426</v>
+        <v>593319.0307626064</v>
       </c>
       <c r="M6" t="n">
-        <v>508298.7407525306</v>
+        <v>508264.0028270949</v>
       </c>
       <c r="N6" t="n">
-        <v>593353.7686880424</v>
+        <v>593319.0307626068</v>
       </c>
       <c r="O6" t="n">
-        <v>593353.7686880428</v>
+        <v>593319.0307626069</v>
       </c>
       <c r="P6" t="n">
-        <v>593353.7686880426</v>
+        <v>593319.030762607</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.73773680526618e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.73773680526618e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.73773680526618e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024427</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>72.33908364747495</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>76.4642636387355</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.2420326896593</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>2.309284925454733</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>7.015418413120344</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>59.06467041442545</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.198801672972138</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>189.4891510446031</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>213.0993748903002</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>248.3870916262918</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,13 +32555,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>764.2478901092629</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33029,19 +33029,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>553.392502062293</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33497,19 +33497,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>528.7932908500043</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
-        <v>295.3955842839429</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,31 +33971,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,10 +34208,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.4053175402703</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394703</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,13 +36373,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>632.9061780259296</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36677,19 +36677,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>414.8381222824188</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,19 +37145,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>386.659256927986</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
-        <v>157.5541453095838</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,10 +37856,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>395.0475418999253</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
